--- a/e-society DD.xlsx
+++ b/e-society DD.xlsx
@@ -1,31 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="20490" windowHeight="7815"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="DataDictionary-eSociety" sheetId="1" r:id="rId4"/>
+    <sheet name="DataDictionary-eSociety" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="95">
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t>Company Name</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF0000FF"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> - Unnati Informatics LLP.</t>
     </r>
@@ -33,17 +40,21 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t>Team members</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF0000FF"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> - Jeel Jadawala, Keya Patel</t>
     </r>
@@ -331,52 +342,224 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Roboto"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
-    </font>
-    <font>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
-    </font>
-    <font>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Roboto"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -384,9 +567,201 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="10">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -400,68 +775,330 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -651,24 +1288,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104:A115"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="24.0"/>
-    <col customWidth="1" min="5" max="5" width="58.0"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="5" max="5" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customHeight="1" spans="1:6">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -678,7 +1319,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -686,7 +1327,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -696,7 +1337,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -704,7 +1345,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -714,7 +1355,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -724,7 +1365,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -734,7 +1375,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -744,7 +1385,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -754,7 +1395,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -764,7 +1405,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -774,7 +1415,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
@@ -784,7 +1425,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" customHeight="1" spans="1:6">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -794,7 +1435,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" customHeight="1" spans="1:6">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -804,7 +1445,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" customHeight="1" spans="1:6">
       <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
@@ -814,7 +1455,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" customHeight="1" spans="1:6">
       <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
@@ -824,7 +1465,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" customHeight="1" spans="1:6">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -832,7 +1473,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" customHeight="1" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -852,12 +1493,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" customHeight="1" spans="1:1">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" customHeight="1" spans="1:6">
       <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
@@ -874,7 +1515,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" customHeight="1" spans="1:6">
       <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
@@ -888,13 +1529,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" customHeight="1" spans="1:1">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="6" t="s">
+    <row r="24" customHeight="1" spans="1:6">
+      <c r="A24" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -910,7 +1551,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" customHeight="1" spans="1:6">
       <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
@@ -924,7 +1565,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" customHeight="1" spans="1:5">
       <c r="A26" s="4" t="s">
         <v>31</v>
       </c>
@@ -935,7 +1576,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" customHeight="1" spans="1:5">
       <c r="A27" s="4" t="s">
         <v>33</v>
       </c>
@@ -946,7 +1587,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" customHeight="1" spans="1:5">
       <c r="A28" s="4" t="s">
         <v>21</v>
       </c>
@@ -963,7 +1604,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" customHeight="1" spans="1:5">
       <c r="A29" s="4" t="s">
         <v>36</v>
       </c>
@@ -974,7 +1615,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" customHeight="1" spans="1:5">
       <c r="A30" s="4" t="s">
         <v>38</v>
       </c>
@@ -985,8 +1626,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="6" t="s">
+    <row r="31" customHeight="1" spans="1:5">
+      <c r="A31" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D31" s="4"/>
@@ -994,12 +1635,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" customHeight="1" spans="1:1">
       <c r="A33" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" customHeight="1" spans="1:6">
       <c r="A34" s="4" t="s">
         <v>41</v>
       </c>
@@ -1016,7 +1657,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" customHeight="1" spans="1:6">
       <c r="A35" s="4" t="s">
         <v>28</v>
       </c>
@@ -1036,7 +1677,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" customHeight="1" spans="1:5">
       <c r="A36" s="4" t="s">
         <v>42</v>
       </c>
@@ -1053,7 +1694,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" customHeight="1" spans="1:5">
       <c r="A37" s="4" t="s">
         <v>44</v>
       </c>
@@ -1064,7 +1705,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" customHeight="1" spans="1:5">
       <c r="A38" s="4" t="s">
         <v>46</v>
       </c>
@@ -1075,12 +1716,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" customHeight="1" spans="1:1">
       <c r="A40" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" customHeight="1" spans="1:6">
       <c r="A41" s="4" t="s">
         <v>42</v>
       </c>
@@ -1097,7 +1738,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" customHeight="1" spans="1:6">
       <c r="A42" s="4" t="s">
         <v>47</v>
       </c>
@@ -1111,12 +1752,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" customHeight="1" spans="1:1">
       <c r="A45" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" customHeight="1" spans="1:5">
       <c r="A46" s="4" t="s">
         <v>50</v>
       </c>
@@ -1127,8 +1768,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="6" t="s">
+    <row r="47" customHeight="1" spans="1:6">
+      <c r="A47" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -1144,7 +1785,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" customHeight="1" spans="1:5">
       <c r="A48" s="4" t="s">
         <v>53</v>
       </c>
@@ -1155,7 +1796,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" customHeight="1" spans="1:5">
       <c r="A49" s="4" t="s">
         <v>54</v>
       </c>
@@ -1166,7 +1807,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" customHeight="1" spans="1:5">
       <c r="A50" s="4" t="s">
         <v>33</v>
       </c>
@@ -1177,7 +1818,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" customHeight="1" spans="1:6">
       <c r="A51" s="4" t="s">
         <v>28</v>
       </c>
@@ -1194,15 +1835,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" customHeight="1" spans="1:1">
       <c r="A52" s="4"/>
     </row>
-    <row r="53">
+    <row r="53" customHeight="1" spans="1:1">
       <c r="A53" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" customHeight="1" spans="1:6">
       <c r="A54" s="4" t="s">
         <v>57</v>
       </c>
@@ -1219,7 +1860,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" customHeight="1" spans="1:5">
       <c r="A55" s="4" t="s">
         <v>52</v>
       </c>
@@ -1236,7 +1877,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" customHeight="1" spans="1:5">
       <c r="A56" s="4" t="s">
         <v>53</v>
       </c>
@@ -1247,7 +1888,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" customHeight="1" spans="1:5">
       <c r="A57" s="4" t="s">
         <v>60</v>
       </c>
@@ -1258,15 +1899,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" customHeight="1" spans="1:1">
       <c r="A58" s="5"/>
     </row>
-    <row r="59">
+    <row r="59" customHeight="1" spans="1:1">
       <c r="A59" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" customHeight="1" spans="1:5">
       <c r="A60" s="4" t="s">
         <v>28</v>
       </c>
@@ -1283,7 +1924,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" customHeight="1" spans="1:5">
       <c r="A61" s="4" t="s">
         <v>63</v>
       </c>
@@ -1300,7 +1941,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" customHeight="1" spans="1:6">
       <c r="A62" s="4" t="s">
         <v>64</v>
       </c>
@@ -1318,7 +1959,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" customHeight="1" spans="1:6">
       <c r="A63" s="4" t="s">
         <v>65</v>
       </c>
@@ -1332,7 +1973,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" customHeight="1" spans="1:5">
       <c r="A64" s="4" t="s">
         <v>66</v>
       </c>
@@ -1343,19 +1984,19 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" customHeight="1" spans="1:1">
       <c r="A65" s="5"/>
     </row>
-    <row r="66">
+    <row r="66" customHeight="1" spans="1:1">
       <c r="A66" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" customHeight="1" spans="1:5">
       <c r="A67" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D67" s="4" t="s">
@@ -1365,7 +2006,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" customHeight="1" spans="1:5">
       <c r="A68" s="4" t="s">
         <v>70</v>
       </c>
@@ -1382,7 +2023,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" customHeight="1" spans="1:5">
       <c r="A69" s="4" t="s">
         <v>42</v>
       </c>
@@ -1399,7 +2040,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" customHeight="1" spans="1:5">
       <c r="A70" s="4" t="s">
         <v>72</v>
       </c>
@@ -1410,7 +2051,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" customHeight="1" spans="1:5">
       <c r="A71" s="4" t="s">
         <v>60</v>
       </c>
@@ -1421,7 +2062,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" customHeight="1" spans="1:5">
       <c r="A72" s="4" t="s">
         <v>74</v>
       </c>
@@ -1432,8 +2073,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="6" t="s">
+    <row r="73" customHeight="1" spans="1:5">
+      <c r="A73" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D73" s="4" t="s">
@@ -1443,7 +2084,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" customHeight="1" spans="1:5">
       <c r="A74" s="4" t="s">
         <v>77</v>
       </c>
@@ -1454,7 +2095,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" customHeight="1" spans="1:5">
       <c r="A75" s="4" t="s">
         <v>33</v>
       </c>
@@ -1465,7 +2106,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" customHeight="1" spans="1:5">
       <c r="A76" s="4" t="s">
         <v>39</v>
       </c>
@@ -1473,8 +2114,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="7" t="s">
+    <row r="77" customHeight="1" spans="1:5">
+      <c r="A77" s="6" t="s">
         <v>79</v>
       </c>
       <c r="D77" s="4" t="s">
@@ -1484,7 +2125,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" customHeight="1" spans="1:5">
       <c r="A78" s="4" t="s">
         <v>80</v>
       </c>
@@ -1495,55 +2136,55 @@
         <v>48</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" customHeight="1" spans="1:1">
       <c r="A80" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="8" t="s">
+    <row r="81" customHeight="1" spans="1:8">
+      <c r="A81" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E81" s="8" t="s">
+      <c r="C81" s="7"/>
+      <c r="D81" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E81" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F81" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="8" t="s">
+      <c r="F81" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+    </row>
+    <row r="82" customHeight="1" spans="1:8">
+      <c r="A82" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="10"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E82" s="11" t="s">
+      <c r="B82" s="4"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F82" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G82" s="13"/>
-      <c r="H82" s="10"/>
-    </row>
-    <row r="86">
+      <c r="F82" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G82" s="9"/>
+      <c r="H82" s="4"/>
+    </row>
+    <row r="86" customHeight="1" spans="1:1">
       <c r="A86" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" customHeight="1" spans="1:6">
       <c r="A87" s="4" t="s">
         <v>85</v>
       </c>
@@ -1560,7 +2201,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" customHeight="1" spans="1:5">
       <c r="A88" s="4" t="s">
         <v>39</v>
       </c>
@@ -1568,7 +2209,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" customHeight="1" spans="1:5">
       <c r="A89" s="4" t="s">
         <v>86</v>
       </c>
@@ -1579,7 +2220,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" customHeight="1" spans="1:5">
       <c r="A90" s="4" t="s">
         <v>46</v>
       </c>
@@ -1590,7 +2231,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" customHeight="1" spans="1:5">
       <c r="A91" s="4" t="s">
         <v>87</v>
       </c>
@@ -1607,7 +2248,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" customHeight="1" spans="1:5">
       <c r="A92" s="4" t="s">
         <v>88</v>
       </c>
@@ -1618,7 +2259,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" customHeight="1" spans="1:5">
       <c r="A93" s="4" t="s">
         <v>89</v>
       </c>
@@ -1629,7 +2270,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" customHeight="1" spans="1:5">
       <c r="A94" s="4" t="s">
         <v>90</v>
       </c>
@@ -1640,7 +2281,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" customHeight="1" spans="1:5">
       <c r="A95" s="4" t="s">
         <v>91</v>
       </c>
@@ -1651,15 +2292,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" customHeight="1" spans="1:1">
       <c r="A97" s="1"/>
     </row>
-    <row r="98">
+    <row r="98" customHeight="1" spans="1:1">
       <c r="A98" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" customHeight="1" spans="1:6">
       <c r="A99" s="4" t="s">
         <v>92</v>
       </c>
@@ -1676,7 +2317,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" customHeight="1" spans="1:5">
       <c r="A100" s="4" t="s">
         <v>93</v>
       </c>
@@ -1687,7 +2328,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" customHeight="1" spans="1:5">
       <c r="A101" s="4" t="s">
         <v>94</v>
       </c>
@@ -1698,7 +2339,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" customHeight="1" spans="1:4">
       <c r="A102" s="4" t="s">
         <v>87</v>
       </c>
@@ -1712,67 +2353,44 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="4" t="s">
-        <v>13</v>
-      </c>
+    <row r="104" customHeight="1" spans="1:1">
+      <c r="A104" s="1"/>
+    </row>
+    <row r="105" customHeight="1" spans="1:1">
+      <c r="A105" s="4"/>
+    </row>
+    <row r="106" customHeight="1" spans="1:1">
+      <c r="A106" s="4"/>
+    </row>
+    <row r="107" customHeight="1" spans="1:1">
+      <c r="A107" s="4"/>
+    </row>
+    <row r="108" customHeight="1" spans="1:1">
+      <c r="A108" s="4"/>
+    </row>
+    <row r="109" customHeight="1" spans="1:1">
+      <c r="A109" s="4"/>
+    </row>
+    <row r="110" customHeight="1" spans="1:1">
+      <c r="A110" s="4"/>
+    </row>
+    <row r="111" customHeight="1" spans="1:1">
+      <c r="A111" s="4"/>
+    </row>
+    <row r="112" customHeight="1" spans="1:1">
+      <c r="A112" s="4"/>
+    </row>
+    <row r="113" customHeight="1" spans="1:1">
+      <c r="A113" s="4"/>
+    </row>
+    <row r="114" customHeight="1" spans="1:1">
+      <c r="A114" s="4"/>
+    </row>
+    <row r="115" customHeight="1" spans="1:1">
+      <c r="A115" s="4"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>